--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_HAMPSHIRE_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_HAMPSHIRE_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -672,12 +672,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C22">
@@ -747,7 +747,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C27">
@@ -778,7 +778,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C29">
@@ -791,7 +791,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C30">
@@ -830,7 +830,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C33">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C48">
@@ -1063,7 +1063,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C49">
@@ -1146,7 +1146,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C55">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C59">
@@ -1229,7 +1229,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C61">
@@ -1242,7 +1242,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C62">
@@ -1268,7 +1268,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C64">
@@ -1444,7 +1444,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C76">
@@ -1566,41 +1566,6 @@
       </c>
       <c r="D84">
         <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_HAMPSHIRE_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_HAMPSHIRE_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Chanal</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Ixtapa</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Coquimatlán</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1061,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1074,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1253,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1266,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1279,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1310,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1341,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1354,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1385,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1416,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -1429,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1442,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -1455,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1468,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1499,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1530,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1543,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
